--- a/characteristic data/Pressure Sensor Calibration AIO Data/Pressure Sensor Calibration.xlsx
+++ b/characteristic data/Pressure Sensor Calibration AIO Data/Pressure Sensor Calibration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SmithCA\Documents\GitHub\DHEC-Stage-Sensor\code\WLS_MQTT_toAdafruitIO_v6_STABLE\Pressure Sensor Calibration AIO Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SmithCA\Documents\GitHub\DHEC-Stage-Sensor\characteristic data\Pressure Sensor Calibration AIO Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED77FF-764D-404C-8F6C-C008B8B08041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7EAC44-61D7-4927-BB79-D2D1FF596058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E545EA9D-E698-426F-B9AF-EE7411AEA94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E545EA9D-E698-426F-B9AF-EE7411AEA94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>D2/2.31</f>
+        <f t="shared" ref="A2:A19" si="0">D2/2.31</f>
         <v>6.8528138528138527</v>
       </c>
       <c r="C2">
@@ -6662,7 +6662,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>D3/2.31</f>
+        <f t="shared" si="0"/>
         <v>6.4935064935064934</v>
       </c>
       <c r="C3">
@@ -6677,7 +6677,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>D4/2.31</f>
+        <f t="shared" si="0"/>
         <v>6.0606060606060606</v>
       </c>
       <c r="C4">
@@ -6689,7 +6689,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>D5/2.31</f>
+        <f t="shared" si="0"/>
         <v>5.6277056277056277</v>
       </c>
       <c r="C5">
@@ -6701,7 +6701,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>D6/2.31</f>
+        <f t="shared" si="0"/>
         <v>5.1948051948051948</v>
       </c>
       <c r="C6">
@@ -6716,7 +6716,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>D7/2.31</f>
+        <f t="shared" si="0"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="C7">
@@ -6728,7 +6728,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>D8/2.31</f>
+        <f t="shared" si="0"/>
         <v>4.329004329004329</v>
       </c>
       <c r="C8">
@@ -6740,7 +6740,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>D9/2.31</f>
+        <f t="shared" si="0"/>
         <v>3.8961038961038961</v>
       </c>
       <c r="C9">
@@ -6752,7 +6752,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>D10/2.31</f>
+        <f t="shared" si="0"/>
         <v>3.4632034632034632</v>
       </c>
       <c r="C10">
@@ -6764,7 +6764,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>D11/2.31</f>
+        <f t="shared" si="0"/>
         <v>3.0303030303030303</v>
       </c>
       <c r="C11">
@@ -6776,7 +6776,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>D12/2.31</f>
+        <f t="shared" si="0"/>
         <v>2.5974025974025974</v>
       </c>
       <c r="C12">
@@ -6788,7 +6788,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>D13/2.31</f>
+        <f t="shared" si="0"/>
         <v>2.2186147186147185</v>
       </c>
       <c r="D13">
@@ -6804,7 +6804,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>D14/2.31</f>
+        <f t="shared" si="0"/>
         <v>2.1645021645021645</v>
       </c>
       <c r="C14">
@@ -6820,13 +6820,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J34" si="0">I14*5.78282 -2.28641</f>
+        <f t="shared" ref="J14:J34" si="1">I14*5.78282 -2.28641</f>
         <v>27.205971999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>D15/2.31</f>
+        <f t="shared" si="0"/>
         <v>1.7316017316017316</v>
       </c>
       <c r="C15">
@@ -6839,13 +6839,13 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.627690000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>D16/2.31</f>
+        <f t="shared" si="0"/>
         <v>1.2987012987012987</v>
       </c>
       <c r="C16">
@@ -6858,13 +6858,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.049408000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>D17/2.31</f>
+        <f t="shared" si="0"/>
         <v>0.86580086580086579</v>
       </c>
       <c r="C17">
@@ -6877,13 +6877,13 @@
         <v>4.8</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.471125999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>D18/2.31</f>
+        <f t="shared" si="0"/>
         <v>0.4329004329004329</v>
       </c>
       <c r="C18">
@@ -6896,13 +6896,13 @@
         <v>4.7</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.892844</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>D19/2.31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19">
@@ -6918,7 +6918,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.314561999999999</v>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
         <v>4.5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.736280000000001</v>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.157998000000003</v>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
         <v>4.3</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.579715999999998</v>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
         <v>4.2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.001434</v>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.423151999999998</v>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.84487</v>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
         <v>3.9</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.266587999999999</v>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
         <v>3.8</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.688306000000001</v>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
         <v>3.7</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.110024000000003</v>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
         <v>3.6</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.531742000000001</v>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
         <v>3.5</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.95346</v>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
         <v>3.4</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.375177999999998</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
         <v>3.3</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.796896</v>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
         <v>3.2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.218614000000002</v>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
         <v>3.1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.640332000000001</v>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
         <v>2.9</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J66" si="1">I36*5.78282 -2.28641</f>
+        <f t="shared" ref="J36:J66" si="2">I36*5.78282 -2.28641</f>
         <v>14.483768000000001</v>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
         <v>2.81</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.963314199999999</v>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
         <v>2.8</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.905486</v>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
         <v>2.7</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.327204000000002</v>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
         <v>2.6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.748922</v>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
         <v>2.5</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.170640000000001</v>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
         <v>2.4</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.592357999999999</v>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.014075999999999</v>
       </c>
     </row>
@@ -7150,7 +7150,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.435794000000001</v>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
         <v>2.1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8575119999999998</v>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
         <v>2</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2792300000000001</v>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
         <v>1.9</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7009480000000003</v>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
         <v>1.8</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1226660000000006</v>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
         <v>1.79</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0648378000000012</v>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
         <v>1.7</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5443839999999991</v>
       </c>
     </row>
@@ -7213,7 +7213,7 @@
         <v>1.6</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9661020000000011</v>
       </c>
     </row>
@@ -7222,7 +7222,7 @@
         <v>1.5</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3878199999999996</v>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
         <v>1.4</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8095379999999999</v>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
         <v>1.3</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2312560000000001</v>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2023418999999995</v>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
         <v>1.27</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0577714</v>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
         <v>1.2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6529739999999995</v>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0746920000000006</v>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.49641</v>
       </c>
     </row>
@@ -7294,7 +7294,7 @@
         <v>0.9</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9181280000000003</v>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
         <v>0.8</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3398460000000005</v>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
         <v>0.7</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7615639999999999</v>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
         <v>0.6</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1832819999999997</v>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
         <v>0.5</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60499999999999998</v>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
         <v>0.39545000000000002</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0616900000012279E-4</v>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E5A91-021F-48F6-A3BE-3731BC6CA319}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -7646,7 +7646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F33C35-6DD3-4726-A03B-F7940135E0F1}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
